--- a/src/test/resources/yearOnYearPaymentDetails.xlsx
+++ b/src/test/resources/yearOnYearPaymentDetails.xlsx
@@ -41,325 +41,325 @@
     <t>2024</t>
   </si>
   <si>
-    <t>₹ 1,60,794</t>
-  </si>
-  <si>
-    <t>₹ 7,83,918</t>
+    <t>₹ 1,13,992</t>
+  </si>
+  <si>
+    <t>₹ 5,60,803</t>
+  </si>
+  <si>
+    <t>₹ 31,250</t>
+  </si>
+  <si>
+    <t>₹ 7,06,044</t>
+  </si>
+  <si>
+    <t>₹ 1,48,86,008</t>
+  </si>
+  <si>
+    <t>0.76%</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>₹ 2,91,600</t>
+  </si>
+  <si>
+    <t>₹ 13,27,907</t>
+  </si>
+  <si>
+    <t>₹ 75,000</t>
+  </si>
+  <si>
+    <t>₹ 16,94,507</t>
+  </si>
+  <si>
+    <t>₹ 1,45,94,409</t>
+  </si>
+  <si>
+    <t>2.7%</t>
+  </si>
+  <si>
+    <t>2026</t>
+  </si>
+  <si>
+    <t>₹ 3,18,954</t>
+  </si>
+  <si>
+    <t>₹ 13,00,553</t>
+  </si>
+  <si>
+    <t>₹ 1,42,75,455</t>
+  </si>
+  <si>
+    <t>4.83%</t>
+  </si>
+  <si>
+    <t>2027</t>
+  </si>
+  <si>
+    <t>₹ 3,48,874</t>
+  </si>
+  <si>
+    <t>₹ 12,70,633</t>
+  </si>
+  <si>
+    <t>₹ 1,39,26,581</t>
+  </si>
+  <si>
+    <t>7.16%</t>
+  </si>
+  <si>
+    <t>2028</t>
+  </si>
+  <si>
+    <t>₹ 3,81,601</t>
+  </si>
+  <si>
+    <t>₹ 12,37,906</t>
+  </si>
+  <si>
+    <t>₹ 1,35,44,980</t>
+  </si>
+  <si>
+    <t>9.7%</t>
+  </si>
+  <si>
+    <t>2029</t>
+  </si>
+  <si>
+    <t>₹ 4,17,397</t>
+  </si>
+  <si>
+    <t>₹ 12,02,109</t>
+  </si>
+  <si>
+    <t>₹ 1,31,27,583</t>
+  </si>
+  <si>
+    <t>12.48%</t>
+  </si>
+  <si>
+    <t>2030</t>
+  </si>
+  <si>
+    <t>₹ 4,56,552</t>
+  </si>
+  <si>
+    <t>₹ 11,62,955</t>
+  </si>
+  <si>
+    <t>₹ 1,26,71,031</t>
+  </si>
+  <si>
+    <t>15.53%</t>
+  </si>
+  <si>
+    <t>2031</t>
+  </si>
+  <si>
+    <t>₹ 4,99,380</t>
+  </si>
+  <si>
+    <t>₹ 11,20,127</t>
+  </si>
+  <si>
+    <t>₹ 1,21,71,651</t>
+  </si>
+  <si>
+    <t>18.86%</t>
+  </si>
+  <si>
+    <t>2032</t>
+  </si>
+  <si>
+    <t>₹ 5,46,225</t>
+  </si>
+  <si>
+    <t>₹ 10,73,282</t>
+  </si>
+  <si>
+    <t>₹ 1,16,25,426</t>
+  </si>
+  <si>
+    <t>22.5%</t>
+  </si>
+  <si>
+    <t>2033</t>
+  </si>
+  <si>
+    <t>₹ 5,97,465</t>
+  </si>
+  <si>
+    <t>₹ 10,22,042</t>
+  </si>
+  <si>
+    <t>₹ 1,10,27,961</t>
+  </si>
+  <si>
+    <t>26.48%</t>
+  </si>
+  <si>
+    <t>2034</t>
+  </si>
+  <si>
+    <t>₹ 6,53,511</t>
+  </si>
+  <si>
+    <t>₹ 9,65,995</t>
+  </si>
+  <si>
+    <t>₹ 1,03,74,449</t>
+  </si>
+  <si>
+    <t>30.84%</t>
+  </si>
+  <si>
+    <t>2035</t>
+  </si>
+  <si>
+    <t>₹ 7,14,815</t>
+  </si>
+  <si>
+    <t>₹ 9,04,692</t>
+  </si>
+  <si>
+    <t>₹ 96,59,634</t>
+  </si>
+  <si>
+    <t>35.6%</t>
+  </si>
+  <si>
+    <t>2036</t>
+  </si>
+  <si>
+    <t>₹ 7,81,870</t>
+  </si>
+  <si>
+    <t>₹ 8,37,637</t>
+  </si>
+  <si>
+    <t>₹ 88,77,765</t>
+  </si>
+  <si>
+    <t>40.81%</t>
+  </si>
+  <si>
+    <t>2037</t>
+  </si>
+  <si>
+    <t>₹ 8,55,214</t>
+  </si>
+  <si>
+    <t>₹ 7,64,292</t>
+  </si>
+  <si>
+    <t>₹ 80,22,550</t>
+  </si>
+  <si>
+    <t>46.52%</t>
+  </si>
+  <si>
+    <t>2038</t>
+  </si>
+  <si>
+    <t>₹ 9,35,439</t>
+  </si>
+  <si>
+    <t>₹ 6,84,067</t>
+  </si>
+  <si>
+    <t>₹ 70,87,111</t>
+  </si>
+  <si>
+    <t>52.75%</t>
+  </si>
+  <si>
+    <t>2039</t>
+  </si>
+  <si>
+    <t>₹ 10,23,190</t>
+  </si>
+  <si>
+    <t>₹ 5,96,317</t>
+  </si>
+  <si>
+    <t>₹ 60,63,921</t>
+  </si>
+  <si>
+    <t>59.57%</t>
+  </si>
+  <si>
+    <t>2040</t>
+  </si>
+  <si>
+    <t>₹ 11,19,172</t>
+  </si>
+  <si>
+    <t>₹ 5,00,334</t>
+  </si>
+  <si>
+    <t>₹ 49,44,748</t>
+  </si>
+  <si>
+    <t>67.04%</t>
+  </si>
+  <si>
+    <t>2041</t>
+  </si>
+  <si>
+    <t>₹ 12,24,159</t>
+  </si>
+  <si>
+    <t>₹ 3,95,348</t>
+  </si>
+  <si>
+    <t>₹ 37,20,590</t>
+  </si>
+  <si>
+    <t>75.2%</t>
+  </si>
+  <si>
+    <t>2042</t>
+  </si>
+  <si>
+    <t>₹ 13,38,993</t>
+  </si>
+  <si>
+    <t>₹ 2,80,514</t>
+  </si>
+  <si>
+    <t>₹ 23,81,597</t>
+  </si>
+  <si>
+    <t>84.12%</t>
+  </si>
+  <si>
+    <t>2043</t>
+  </si>
+  <si>
+    <t>₹ 14,64,600</t>
+  </si>
+  <si>
+    <t>₹ 1,54,907</t>
+  </si>
+  <si>
+    <t>₹ 9,16,997</t>
+  </si>
+  <si>
+    <t>93.89%</t>
+  </si>
+  <si>
+    <t>2044</t>
+  </si>
+  <si>
+    <t>₹ 27,715</t>
   </si>
   <si>
     <t>₹ 43,750</t>
   </si>
   <si>
     <t>₹ 9,88,462</t>
-  </si>
-  <si>
-    <t>₹ 1,48,39,206</t>
-  </si>
-  <si>
-    <t>1.07%</t>
-  </si>
-  <si>
-    <t>2025</t>
-  </si>
-  <si>
-    <t>₹ 2,95,990</t>
-  </si>
-  <si>
-    <t>₹ 13,23,517</t>
-  </si>
-  <si>
-    <t>₹ 75,000</t>
-  </si>
-  <si>
-    <t>₹ 16,94,507</t>
-  </si>
-  <si>
-    <t>₹ 1,45,43,216</t>
-  </si>
-  <si>
-    <t>3.05%</t>
-  </si>
-  <si>
-    <t>2026</t>
-  </si>
-  <si>
-    <t>₹ 3,23,756</t>
-  </si>
-  <si>
-    <t>₹ 12,95,751</t>
-  </si>
-  <si>
-    <t>₹ 1,42,19,460</t>
-  </si>
-  <si>
-    <t>5.2%</t>
-  </si>
-  <si>
-    <t>2027</t>
-  </si>
-  <si>
-    <t>₹ 3,54,127</t>
-  </si>
-  <si>
-    <t>₹ 12,65,380</t>
-  </si>
-  <si>
-    <t>₹ 1,38,65,333</t>
-  </si>
-  <si>
-    <t>7.56%</t>
-  </si>
-  <si>
-    <t>2028</t>
-  </si>
-  <si>
-    <t>₹ 3,87,346</t>
-  </si>
-  <si>
-    <t>₹ 12,32,161</t>
-  </si>
-  <si>
-    <t>₹ 1,34,77,987</t>
-  </si>
-  <si>
-    <t>10.15%</t>
-  </si>
-  <si>
-    <t>2029</t>
-  </si>
-  <si>
-    <t>₹ 4,23,682</t>
-  </si>
-  <si>
-    <t>₹ 11,95,825</t>
-  </si>
-  <si>
-    <t>₹ 1,30,54,305</t>
-  </si>
-  <si>
-    <t>12.97%</t>
-  </si>
-  <si>
-    <t>2030</t>
-  </si>
-  <si>
-    <t>₹ 4,63,426</t>
-  </si>
-  <si>
-    <t>₹ 11,56,081</t>
-  </si>
-  <si>
-    <t>₹ 1,25,90,879</t>
-  </si>
-  <si>
-    <t>16.06%</t>
-  </si>
-  <si>
-    <t>2031</t>
-  </si>
-  <si>
-    <t>₹ 5,06,899</t>
-  </si>
-  <si>
-    <t>₹ 11,12,608</t>
-  </si>
-  <si>
-    <t>₹ 1,20,83,980</t>
-  </si>
-  <si>
-    <t>19.44%</t>
-  </si>
-  <si>
-    <t>2032</t>
-  </si>
-  <si>
-    <t>₹ 5,54,449</t>
-  </si>
-  <si>
-    <t>₹ 10,65,057</t>
-  </si>
-  <si>
-    <t>₹ 1,15,29,531</t>
-  </si>
-  <si>
-    <t>23.14%</t>
-  </si>
-  <si>
-    <t>2033</t>
-  </si>
-  <si>
-    <t>₹ 6,06,460</t>
-  </si>
-  <si>
-    <t>₹ 10,13,046</t>
-  </si>
-  <si>
-    <t>₹ 1,09,23,070</t>
-  </si>
-  <si>
-    <t>27.18%</t>
-  </si>
-  <si>
-    <t>2034</t>
-  </si>
-  <si>
-    <t>₹ 6,63,351</t>
-  </si>
-  <si>
-    <t>₹ 9,56,156</t>
-  </si>
-  <si>
-    <t>₹ 1,02,59,720</t>
-  </si>
-  <si>
-    <t>31.6%</t>
-  </si>
-  <si>
-    <t>2035</t>
-  </si>
-  <si>
-    <t>₹ 7,25,578</t>
-  </si>
-  <si>
-    <t>₹ 8,93,929</t>
-  </si>
-  <si>
-    <t>₹ 95,34,142</t>
-  </si>
-  <si>
-    <t>36.44%</t>
-  </si>
-  <si>
-    <t>2036</t>
-  </si>
-  <si>
-    <t>₹ 7,93,642</t>
-  </si>
-  <si>
-    <t>₹ 8,25,865</t>
-  </si>
-  <si>
-    <t>₹ 87,40,501</t>
-  </si>
-  <si>
-    <t>41.73%</t>
-  </si>
-  <si>
-    <t>2037</t>
-  </si>
-  <si>
-    <t>₹ 8,68,091</t>
-  </si>
-  <si>
-    <t>₹ 7,51,416</t>
-  </si>
-  <si>
-    <t>₹ 78,72,410</t>
-  </si>
-  <si>
-    <t>47.52%</t>
-  </si>
-  <si>
-    <t>2038</t>
-  </si>
-  <si>
-    <t>₹ 9,49,524</t>
-  </si>
-  <si>
-    <t>₹ 6,69,983</t>
-  </si>
-  <si>
-    <t>₹ 69,22,886</t>
-  </si>
-  <si>
-    <t>53.85%</t>
-  </si>
-  <si>
-    <t>2039</t>
-  </si>
-  <si>
-    <t>₹ 10,38,596</t>
-  </si>
-  <si>
-    <t>₹ 5,80,911</t>
-  </si>
-  <si>
-    <t>₹ 58,84,291</t>
-  </si>
-  <si>
-    <t>60.77%</t>
-  </si>
-  <si>
-    <t>2040</t>
-  </si>
-  <si>
-    <t>₹ 11,36,023</t>
-  </si>
-  <si>
-    <t>₹ 4,83,484</t>
-  </si>
-  <si>
-    <t>₹ 47,48,268</t>
-  </si>
-  <si>
-    <t>68.34%</t>
-  </si>
-  <si>
-    <t>2041</t>
-  </si>
-  <si>
-    <t>₹ 12,42,590</t>
-  </si>
-  <si>
-    <t>₹ 3,76,917</t>
-  </si>
-  <si>
-    <t>₹ 35,05,678</t>
-  </si>
-  <si>
-    <t>76.63%</t>
-  </si>
-  <si>
-    <t>2042</t>
-  </si>
-  <si>
-    <t>₹ 13,59,153</t>
-  </si>
-  <si>
-    <t>₹ 2,60,353</t>
-  </si>
-  <si>
-    <t>₹ 21,46,525</t>
-  </si>
-  <si>
-    <t>85.69%</t>
-  </si>
-  <si>
-    <t>2043</t>
-  </si>
-  <si>
-    <t>₹ 14,86,651</t>
-  </si>
-  <si>
-    <t>₹ 1,32,856</t>
-  </si>
-  <si>
-    <t>₹ 6,59,873</t>
-  </si>
-  <si>
-    <t>95.6%</t>
-  </si>
-  <si>
-    <t>2044</t>
-  </si>
-  <si>
-    <t>₹ 14,921</t>
-  </si>
-  <si>
-    <t>₹ 31,250</t>
-  </si>
-  <si>
-    <t>₹ 7,06,044</t>
   </si>
   <si>
     <t>₹ 0</t>
